--- a/Cantarrana_Decadal.xlsx
+++ b/Cantarrana_Decadal.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.945</v>
+        <v>27.366</v>
       </c>
       <c r="C2">
         <v>0.022</v>
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.824</v>
+        <v>26.665</v>
       </c>
       <c r="C3">
         <v>0.033</v>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.702</v>
+        <v>25.964</v>
       </c>
       <c r="C4">
         <v>0.033</v>
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.581</v>
+        <v>25.263</v>
       </c>
       <c r="C5">
-        <v>0.044</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.459</v>
+        <v>24.562</v>
       </c>
       <c r="C6">
-        <v>0.077</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.338</v>
+        <v>23.861</v>
       </c>
       <c r="C7">
-        <v>0.197</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.216</v>
+        <v>23.16</v>
       </c>
       <c r="C8">
-        <v>0.317</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.095</v>
+        <v>22.459</v>
       </c>
       <c r="C9">
-        <v>0.437</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.973</v>
+        <v>21.758</v>
       </c>
       <c r="C10">
-        <v>0.645</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.852</v>
+        <v>21.058</v>
       </c>
       <c r="C11">
-        <v>0.973</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.73</v>
+        <v>20.357</v>
       </c>
       <c r="C12">
-        <v>1.345</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.609</v>
+        <v>19.656</v>
       </c>
       <c r="C13">
-        <v>1.914</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.487</v>
+        <v>18.955</v>
       </c>
       <c r="C14">
-        <v>2.275</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.366</v>
+        <v>18.254</v>
       </c>
       <c r="C15">
-        <v>2.964</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.244</v>
+        <v>17.553</v>
       </c>
       <c r="C16">
-        <v>4.397</v>
+        <v>0.733</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.123</v>
+        <v>16.852</v>
       </c>
       <c r="C17">
-        <v>6.059</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.000999999999999</v>
+        <v>16.151</v>
       </c>
       <c r="C18">
-        <v>7.853</v>
+        <v>1.225</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.88</v>
+        <v>15.45</v>
       </c>
       <c r="C19">
-        <v>10.314</v>
+        <v>1.477</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.758</v>
+        <v>14.749</v>
       </c>
       <c r="C20">
-        <v>13.508</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.637</v>
+        <v>14.048</v>
       </c>
       <c r="C21">
-        <v>18.079</v>
+        <v>2.111</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.515</v>
+        <v>13.347</v>
       </c>
       <c r="C22">
-        <v>24.128</v>
+        <v>2.395</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.394</v>
+        <v>12.646</v>
       </c>
       <c r="C23">
-        <v>32.123</v>
+        <v>2.734</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.272</v>
+        <v>11.945</v>
       </c>
       <c r="C24">
-        <v>41.321</v>
+        <v>3.391</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.151</v>
+        <v>11.244</v>
       </c>
       <c r="C25">
-        <v>53.276</v>
+        <v>4.397</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,175 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <v>10.543</v>
+      </c>
+      <c r="C26">
+        <v>5.403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>9.842000000000001</v>
+      </c>
+      <c r="C27">
+        <v>6.409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>9.141</v>
+      </c>
+      <c r="C28">
+        <v>7.634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>8.44</v>
+      </c>
+      <c r="C29">
+        <v>9.034000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>7.739</v>
+      </c>
+      <c r="C30">
+        <v>10.653</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>7.039</v>
+      </c>
+      <c r="C31">
+        <v>12.775</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>6.338</v>
+      </c>
+      <c r="C32">
+        <v>15.301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>5.637</v>
+      </c>
+      <c r="C33">
+        <v>18.079</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4.936</v>
+      </c>
+      <c r="C34">
+        <v>21.754</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4.235</v>
+      </c>
+      <c r="C35">
+        <v>25.812</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3.534</v>
+      </c>
+      <c r="C36">
+        <v>31.051</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>2.833</v>
+      </c>
+      <c r="C37">
+        <v>36.542</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>2.132</v>
+      </c>
+      <c r="C38">
+        <v>42.645</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.431</v>
+      </c>
+      <c r="C39">
+        <v>50.093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.73</v>
+      </c>
+      <c r="C40">
+        <v>60.976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
         <v>0.029</v>
       </c>
-      <c r="C26">
-        <v>100</v>
+      <c r="C41">
+        <v>99.967</v>
       </c>
     </row>
   </sheetData>
